--- a/voks.xlsx
+++ b/voks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mega Sync\R\voks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mega Sync\R\elections-2022-hu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -322,12 +322,6 @@
     <t>q</t>
   </si>
   <si>
-    <t>EGYSÉGBEN_MAGYARORSZÁGÉRT</t>
-  </si>
-  <si>
-    <t>MI_HAZÁNK</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -377,6 +371,12 @@
   </si>
   <si>
     <t>Környezetvédelem</t>
+  </si>
+  <si>
+    <t>Kérdés</t>
+  </si>
+  <si>
+    <t>Téma</t>
   </si>
 </sst>
 </file>
@@ -3487,22 +3487,22 @@
     </row>
     <row r="25" spans="1:40" ht="18" customHeight="1">
       <c r="H25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="18" customHeight="1">
       <c r="H26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="18" customHeight="1">
       <c r="H27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:40" ht="18" customHeight="1">
       <c r="H28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3906,12 +3906,12 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="55.1796875" customWidth="1"/>
+    <col min="3" max="3" width="55.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" customHeight="1">
@@ -3919,28 +3919,28 @@
         <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>95</v>
-      </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>96</v>
-      </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1">
@@ -3948,16 +3948,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -3969,7 +3969,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1">
@@ -3977,16 +3977,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -3995,10 +3995,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1">
@@ -4006,11 +4006,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
@@ -4024,10 +4024,10 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1">
@@ -4035,16 +4035,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -4053,10 +4053,10 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1">
@@ -4064,16 +4064,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -4082,10 +4082,10 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" customHeight="1">
@@ -4093,16 +4093,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -4111,10 +4111,10 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1">
@@ -4122,16 +4122,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -4143,7 +4143,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.4" customHeight="1">
@@ -4151,11 +4151,11 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -4169,10 +4169,10 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.4" customHeight="1">
@@ -4180,16 +4180,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -4201,7 +4201,7 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" customHeight="1">
@@ -4209,16 +4209,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -4230,7 +4230,7 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1">
@@ -4238,16 +4238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -4259,7 +4259,7 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -4288,7 +4288,7 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1">
@@ -4296,28 +4296,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.4" customHeight="1">
@@ -4325,16 +4325,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -4343,10 +4343,10 @@
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.4" customHeight="1">
@@ -4354,11 +4354,11 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
@@ -4372,10 +4372,10 @@
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1">
@@ -4383,28 +4383,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.4" customHeight="1">
@@ -4412,11 +4412,11 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
@@ -4424,16 +4424,16 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.4" customHeight="1">
@@ -4441,16 +4441,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -4462,7 +4462,7 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.4" customHeight="1">
@@ -4470,16 +4470,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -4491,7 +4491,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.4" customHeight="1">
@@ -4499,28 +4499,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.4" customHeight="1">
@@ -4528,16 +4528,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -4549,7 +4549,7 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.4" customHeight="1">
@@ -4557,11 +4557,11 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -4578,7 +4578,7 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.4" customHeight="1">
@@ -4586,16 +4586,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -4607,7 +4607,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.4" customHeight="1">
@@ -4615,16 +4615,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -4633,10 +4633,10 @@
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.4" customHeight="1">
@@ -4644,16 +4644,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -4665,7 +4665,7 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.4" customHeight="1">
@@ -4673,11 +4673,11 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
@@ -4685,16 +4685,16 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.4" customHeight="1">
@@ -4702,16 +4702,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
@@ -4723,7 +4723,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.4" customHeight="1">
@@ -4731,28 +4731,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.4" customHeight="1">
@@ -4760,11 +4760,11 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
@@ -4781,7 +4781,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.4" customHeight="1">
@@ -4789,16 +4789,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -4810,7 +4810,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.4" customHeight="1">
@@ -4818,16 +4818,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -4839,7 +4839,7 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.4" customHeight="1">
@@ -4847,11 +4847,11 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.4" customHeight="1">
@@ -4876,28 +4876,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
         <v>77</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.4" customHeight="1">
@@ -4905,28 +4905,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
         <v>79</v>
       </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.4" customHeight="1">
@@ -4934,13 +4934,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
         <v>81</v>
       </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -4955,7 +4955,7 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.4" customHeight="1">
@@ -4963,19 +4963,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
         <v>83</v>
       </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G37" t="s">
         <v>6</v>
@@ -4984,7 +4984,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.4" customHeight="1">
@@ -4992,16 +4992,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
@@ -5013,7 +5013,7 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.4" customHeight="1">
@@ -5021,16 +5021,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
         <v>87</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -5042,7 +5042,7 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.4" customHeight="1">
@@ -5050,11 +5050,11 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
         <v>89</v>
       </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
         <v>6</v>
@@ -5071,7 +5071,7 @@
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.4" customHeight="1">
@@ -5079,16 +5079,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
         <v>91</v>
       </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -5100,7 +5100,7 @@
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5148,7 +5148,7 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1">
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1">
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1">
@@ -5235,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1">
@@ -5264,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1">
@@ -5293,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" customHeight="1">
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1">
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.4" customHeight="1">
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.4" customHeight="1">
@@ -5409,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" customHeight="1">
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1">
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1">
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1">
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.4" customHeight="1">
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.4" customHeight="1">
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1">
@@ -5612,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.4" customHeight="1">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.4" customHeight="1">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.4" customHeight="1">
@@ -5699,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.4" customHeight="1">
@@ -5728,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.4" customHeight="1">
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.4" customHeight="1">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.4" customHeight="1">
@@ -5815,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.4" customHeight="1">
@@ -5844,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.4" customHeight="1">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.4" customHeight="1">
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.4" customHeight="1">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.4" customHeight="1">
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.4" customHeight="1">
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.4" customHeight="1">
@@ -6018,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.4" customHeight="1">
@@ -6047,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.4" customHeight="1">
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.4" customHeight="1">
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.4" customHeight="1">
@@ -6134,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.4" customHeight="1">
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.4" customHeight="1">
@@ -6192,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.4" customHeight="1">
@@ -6221,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.4" customHeight="1">
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.4" customHeight="1">
@@ -6279,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.4" customHeight="1">
@@ -6308,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
